--- a/robo_bx/BasesNovas.xlsx
+++ b/robo_bx/BasesNovas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4AFFFF-CCD0-45CE-BDE1-833878A3A236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A4A064-6727-4295-9617-A23AC10F4EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="197">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -241,7 +241,7 @@
     <t>18.765.045/0001-12</t>
   </si>
   <si>
-    <t>ICMS, PISCOFINS</t>
+    <t>ICMS, PISCOFINS, ECD</t>
   </si>
   <si>
     <t>BRASIL_ATACADO</t>
@@ -250,301 +250,289 @@
     <t>46660898000125</t>
   </si>
   <si>
+    <t>BRASIL_ATACADO_CONST</t>
+  </si>
+  <si>
+    <t>07.316.228/0001-34</t>
+  </si>
+  <si>
+    <t>BRAZFARMA</t>
+  </si>
+  <si>
+    <t>27.981.806/0001-64</t>
+  </si>
+  <si>
+    <t>BRAZILIAN_PET_FOODS</t>
+  </si>
+  <si>
+    <t>13056177000313</t>
+  </si>
+  <si>
+    <t>CAMAGRIL</t>
+  </si>
+  <si>
+    <t>76.075.118/0001-40</t>
+  </si>
+  <si>
+    <t>CANTINHO_DISTRIBUIDORA</t>
+  </si>
+  <si>
+    <t>44016976000128</t>
+  </si>
+  <si>
+    <t>CANTINHO_DOCE</t>
+  </si>
+  <si>
+    <t>08505025000159</t>
+  </si>
+  <si>
+    <t>CASEIRINHO</t>
+  </si>
+  <si>
+    <t>02.597.249/0001-51</t>
+  </si>
+  <si>
+    <t>CASTRILON</t>
+  </si>
+  <si>
+    <t>45.955.959/0001-19</t>
+  </si>
+  <si>
+    <t>CATIVA_BENEFICIAMENTO</t>
+  </si>
+  <si>
+    <t>10467099000190</t>
+  </si>
+  <si>
+    <t>CATIVA_CONDUTA</t>
+  </si>
+  <si>
+    <t>04.302.276/0001-85</t>
+  </si>
+  <si>
+    <t>CATIVA_MS</t>
+  </si>
+  <si>
+    <t>10289232000165</t>
+  </si>
+  <si>
+    <t>CATIVA_TEXTIL</t>
+  </si>
+  <si>
+    <t>80959513000163</t>
+  </si>
+  <si>
+    <t>CATUAI</t>
+  </si>
+  <si>
+    <t>79448676000100</t>
+  </si>
+  <si>
+    <t>CB_AGRICOLA</t>
+  </si>
+  <si>
+    <t>26.552.687/0001-61</t>
+  </si>
+  <si>
+    <t>CC_DISTRIBUIDORA</t>
+  </si>
+  <si>
+    <t>00318368000100</t>
+  </si>
+  <si>
+    <t>CELMA_ASSIS</t>
+  </si>
+  <si>
+    <t>03.819.979/0001-12</t>
+  </si>
+  <si>
+    <t>CELMAR_TRANSPORTADORA</t>
+  </si>
+  <si>
+    <t>00665175000118</t>
+  </si>
+  <si>
+    <t>CERTEZZA</t>
+  </si>
+  <si>
+    <t>24.183.361/0001-89</t>
+  </si>
+  <si>
+    <t>CERVEJARIA_PROVIDENCIA</t>
+  </si>
+  <si>
+    <t>19570655000123</t>
+  </si>
+  <si>
+    <t>CILASI</t>
+  </si>
+  <si>
+    <t>60618436000170</t>
+  </si>
+  <si>
+    <t>COBRAZEM</t>
+  </si>
+  <si>
+    <t>01.823.580/0001-80</t>
+  </si>
+  <si>
+    <t>COHAMA_ARTIGOS</t>
+  </si>
+  <si>
+    <t>19644944000120</t>
+  </si>
+  <si>
+    <t>COLORMINAS_COLORIFICIO</t>
+  </si>
+  <si>
+    <t>80.084.809/0001-88</t>
+  </si>
+  <si>
+    <t>COMERCIAL_PARATY</t>
+  </si>
+  <si>
+    <t>70223748000139</t>
+  </si>
+  <si>
+    <t>COMJOL</t>
+  </si>
+  <si>
+    <t>08403578000109</t>
+  </si>
+  <si>
+    <t>CONFECCOES_DIMARMAY</t>
+  </si>
+  <si>
+    <t>00164925000500</t>
+  </si>
+  <si>
+    <t>CONSILOS</t>
+  </si>
+  <si>
+    <t>76533629000169</t>
+  </si>
+  <si>
+    <t>CRIVIALI</t>
+  </si>
+  <si>
+    <t>01.125.487/0001-00</t>
+  </si>
+  <si>
+    <t>CSD</t>
+  </si>
+  <si>
+    <t>11517841000197</t>
+  </si>
+  <si>
+    <t>DEL_MORO</t>
+  </si>
+  <si>
+    <t>00877761000126</t>
+  </si>
+  <si>
+    <t>DELLYS</t>
+  </si>
+  <si>
+    <t>81.611.931/0001-28</t>
+  </si>
+  <si>
+    <t>Deycon_comercio</t>
+  </si>
+  <si>
+    <t>77.887.412/0001-10</t>
+  </si>
+  <si>
+    <t>Deycon_fiorelo</t>
+  </si>
+  <si>
+    <t>81362634000196</t>
+  </si>
+  <si>
+    <t>DI_CANALLI</t>
+  </si>
+  <si>
+    <t>03.591.919/0001-95</t>
+  </si>
+  <si>
+    <t>DIBRASA</t>
+  </si>
+  <si>
+    <t>69.387.066/0001-82</t>
+  </si>
+  <si>
+    <t>DICASA</t>
+  </si>
+  <si>
+    <t>07.013.648/0001-41</t>
+  </si>
+  <si>
+    <t>DISPEC</t>
+  </si>
+  <si>
+    <t>76407204000103</t>
+  </si>
+  <si>
+    <t>DS_DRONES</t>
+  </si>
+  <si>
+    <t>54.134.198/0001-25</t>
+  </si>
+  <si>
+    <t>DS_GESTAO</t>
+  </si>
+  <si>
+    <t>46.211.969/0001-02</t>
+  </si>
+  <si>
+    <t>DS_TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>51.333.678/0001-27</t>
+  </si>
+  <si>
+    <t>ELETRO_PAINEL</t>
+  </si>
+  <si>
+    <t>79.125.936/0001-07</t>
+  </si>
+  <si>
+    <t>ELIZABETH_CERA</t>
+  </si>
+  <si>
+    <t>08568537000164</t>
+  </si>
+  <si>
+    <t>ELIZABETH_CERAMICOS</t>
+  </si>
+  <si>
+    <t>08.568.537/0001-64</t>
+  </si>
+  <si>
+    <t>ELIZABETH_PORCELANATOS</t>
+  </si>
+  <si>
+    <t>02357659000125</t>
+  </si>
+  <si>
+    <t>ELIZABETH_RN</t>
+  </si>
+  <si>
+    <t>19454979000104</t>
+  </si>
+  <si>
+    <t>ELIZABETH_SUL</t>
+  </si>
+  <si>
+    <t>08944802000161</t>
+  </si>
+  <si>
+    <t>EMBRASIL</t>
+  </si>
+  <si>
+    <t>10.437.378/0001-00</t>
+  </si>
+  <si>
     <t>ecd</t>
-  </si>
-  <si>
-    <t>BRASIL_ATACADO_CONST</t>
-  </si>
-  <si>
-    <t>07.316.228/0001-34</t>
-  </si>
-  <si>
-    <t>BRAZFARMA</t>
-  </si>
-  <si>
-    <t>27.981.806/0001-64</t>
-  </si>
-  <si>
-    <t>BRAZILIAN_PET_FOODS</t>
-  </si>
-  <si>
-    <t>13056177000313</t>
-  </si>
-  <si>
-    <t>CAMAGRIL</t>
-  </si>
-  <si>
-    <t>76.075.118/0001-40</t>
-  </si>
-  <si>
-    <t>CANTINHO_DISTRIBUIDORA</t>
-  </si>
-  <si>
-    <t>44016976000128</t>
-  </si>
-  <si>
-    <t>CANTINHO_DOCE</t>
-  </si>
-  <si>
-    <t>08505025000159</t>
-  </si>
-  <si>
-    <t>CASEIRINHO</t>
-  </si>
-  <si>
-    <t>02.597.249/0001-51</t>
-  </si>
-  <si>
-    <t>CASTRILON</t>
-  </si>
-  <si>
-    <t>45.955.959/0001-19</t>
-  </si>
-  <si>
-    <t>CATIVA_BENEFICIAMENTO</t>
-  </si>
-  <si>
-    <t>10467099000190</t>
-  </si>
-  <si>
-    <t>CATIVA_CONDUTA</t>
-  </si>
-  <si>
-    <t>04.302.276/0001-85</t>
-  </si>
-  <si>
-    <t>CATIVA_MS</t>
-  </si>
-  <si>
-    <t>10289232000165</t>
-  </si>
-  <si>
-    <t>CATIVA_TEXTIL</t>
-  </si>
-  <si>
-    <t>80959513000163</t>
-  </si>
-  <si>
-    <t>CATUAI</t>
-  </si>
-  <si>
-    <t>79448676000100</t>
-  </si>
-  <si>
-    <t>CB_AGRICOLA</t>
-  </si>
-  <si>
-    <t>26.552.687/0001-61</t>
-  </si>
-  <si>
-    <t>CC_DISTRIBUIDORA</t>
-  </si>
-  <si>
-    <t>00318368000100</t>
-  </si>
-  <si>
-    <t>CELMA_ASSIS</t>
-  </si>
-  <si>
-    <t>03.819.979/0001-12</t>
-  </si>
-  <si>
-    <t>CELMAR_TRANSPORTADORA</t>
-  </si>
-  <si>
-    <t>00665175000118</t>
-  </si>
-  <si>
-    <t>CERTEZZA</t>
-  </si>
-  <si>
-    <t>24.183.361/0001-89</t>
-  </si>
-  <si>
-    <t>CERVEJARIA_PROVIDENCIA</t>
-  </si>
-  <si>
-    <t>19570655000123</t>
-  </si>
-  <si>
-    <t>CILASI</t>
-  </si>
-  <si>
-    <t>60618436000170</t>
-  </si>
-  <si>
-    <t>COBRAZEM</t>
-  </si>
-  <si>
-    <t>01.823.580/0001-80</t>
-  </si>
-  <si>
-    <t>COHAMA_ARTIGOS</t>
-  </si>
-  <si>
-    <t>19644944000120</t>
-  </si>
-  <si>
-    <t>COLORMINAS_COLORIFICIO</t>
-  </si>
-  <si>
-    <t>80.084.809/0001-88</t>
-  </si>
-  <si>
-    <t>COMERCIAL_PARATY</t>
-  </si>
-  <si>
-    <t>70223748000139</t>
-  </si>
-  <si>
-    <t>COMJOL</t>
-  </si>
-  <si>
-    <t>08403578000109</t>
-  </si>
-  <si>
-    <t>COMPARE_COMERCIAL_PARATY</t>
-  </si>
-  <si>
-    <t>70.223.748/0001-39</t>
-  </si>
-  <si>
-    <t>CONFECCOES_DIMARMAY</t>
-  </si>
-  <si>
-    <t>00164925000500</t>
-  </si>
-  <si>
-    <t>CONSILOS</t>
-  </si>
-  <si>
-    <t>76533629000169</t>
-  </si>
-  <si>
-    <t>CRIVIALI</t>
-  </si>
-  <si>
-    <t>01.125.487/0001-00</t>
-  </si>
-  <si>
-    <t>CSD</t>
-  </si>
-  <si>
-    <t>11517841000197</t>
-  </si>
-  <si>
-    <t>DEL_MORO</t>
-  </si>
-  <si>
-    <t>00877761000126</t>
-  </si>
-  <si>
-    <t>DELLYS</t>
-  </si>
-  <si>
-    <t>81.611.931/0001-28</t>
-  </si>
-  <si>
-    <t>Deycon_comercio</t>
-  </si>
-  <si>
-    <t>77.887.412/0001-10</t>
-  </si>
-  <si>
-    <t>Deycon_fiorelo</t>
-  </si>
-  <si>
-    <t>81362634000196</t>
-  </si>
-  <si>
-    <t>DI_CANALLI</t>
-  </si>
-  <si>
-    <t>03.591.919/0001-95</t>
-  </si>
-  <si>
-    <t>DIBRASA</t>
-  </si>
-  <si>
-    <t>69.387.066/0001-82</t>
-  </si>
-  <si>
-    <t>DICASA</t>
-  </si>
-  <si>
-    <t>07.013.648/0001-41</t>
-  </si>
-  <si>
-    <t>DISPEC</t>
-  </si>
-  <si>
-    <t>76407204000103</t>
-  </si>
-  <si>
-    <t>DS_DRONES</t>
-  </si>
-  <si>
-    <t>54.134.198/0001-25</t>
-  </si>
-  <si>
-    <t>DS_GESTAO</t>
-  </si>
-  <si>
-    <t>46.211.969/0001-02</t>
-  </si>
-  <si>
-    <t>DS_TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>51.333.678/0001-27</t>
-  </si>
-  <si>
-    <t>ELETRO_PAINEL</t>
-  </si>
-  <si>
-    <t>79.125.936/0001-07</t>
-  </si>
-  <si>
-    <t>ELIZABETH_CERA</t>
-  </si>
-  <si>
-    <t>08568537000164</t>
-  </si>
-  <si>
-    <t>ELIZABETH_CERAMICOS</t>
-  </si>
-  <si>
-    <t>08.568.537/0001-64</t>
-  </si>
-  <si>
-    <t>ELIZABETH_PORCELANATOS</t>
-  </si>
-  <si>
-    <t>02357659000125</t>
-  </si>
-  <si>
-    <t>ELIZABETH_RN</t>
-  </si>
-  <si>
-    <t>19454979000104</t>
-  </si>
-  <si>
-    <t>ELIZABETH_SUL</t>
-  </si>
-  <si>
-    <t>08944802000161</t>
-  </si>
-  <si>
-    <t>EMBRASIL</t>
-  </si>
-  <si>
-    <t>10.437.378/0001-00</t>
-  </si>
-  <si>
-    <t>icms</t>
-  </si>
-  <si>
-    <t>PISCOFINS</t>
   </si>
   <si>
     <t>ENERDINBO_ENERGIA</t>
@@ -685,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,9 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -723,6 +708,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,19 +1026,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1098,7 +1087,7 @@
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1122,7 +1111,7 @@
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1134,7 +1123,7 @@
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1158,13 +1147,13 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="6"/>
@@ -1242,7 +1231,7 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1254,7 +1243,7 @@
       <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1266,7 +1255,7 @@
       <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1278,7 +1267,7 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1290,19 +1279,19 @@
       <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1314,7 +1303,7 @@
       <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1328,11 +1317,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="6"/>
@@ -1340,11 +1329,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="6"/>
@@ -1374,7 +1363,7 @@
       <c r="C27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1398,7 +1387,7 @@
       <c r="C29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1434,7 +1423,7 @@
       <c r="C32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -1446,7 +1435,7 @@
       <c r="C33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -1481,233 +1470,231 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="C38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="C41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="C42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="8"/>
+      <c r="C43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="C50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="8"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="C51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="8"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>76</v>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="C53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="8"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="C54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="8"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="7" t="s">
@@ -1716,10 +1703,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="7" t="s">
@@ -1728,10 +1715,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>73</v>
@@ -1739,34 +1726,34 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="C58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="8"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="8"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="7" t="s">
@@ -1775,22 +1762,22 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="8"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="7" t="s">
@@ -1799,105 +1786,105 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="C63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="8"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="C65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="C66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="C67" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="8"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="C69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="8"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="7" t="s">
@@ -1906,10 +1893,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="7" t="s">
@@ -1918,10 +1905,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="7" t="s">
@@ -1930,34 +1917,33 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="8"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>10</v>
@@ -1965,86 +1951,90 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="C77" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="C78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="8"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="C79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="8"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="C80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="8"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="C81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="8"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="C82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="8"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="C83" s="6"/>
+      <c r="D83" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="8"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -2053,186 +2043,170 @@
       <c r="B84" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" t="s">
-        <v>173</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>174</v>
+      <c r="C84" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="E85" s="14"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>177</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="8"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>179</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="B87" t="s">
+        <v>178</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="8"/>
+      <c r="E87" s="14"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>181</v>
-      </c>
-      <c r="B88" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>10</v>
+        <v>182</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C90" s="6"/>
-      <c r="D90" t="s">
-        <v>173</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>174</v>
+      <c r="D90" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" t="s">
-        <v>173</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>174</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="8"/>
+      <c r="E92" s="14"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C94" s="6"/>
-      <c r="D94" t="s">
-        <v>173</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>174</v>
+      <c r="D94" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B96" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" t="s">
-        <v>173</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>197</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="8"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" t="s">
-        <v>173</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>174</v>
+      <c r="C96" s="6"/>
+      <c r="D96" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/robo_bx/BasesNovas.xlsx
+++ b/robo_bx/BasesNovas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A4A064-6727-4295-9617-A23AC10F4EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998A4EB0-80CA-46F1-A341-FE0171BE12C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="197">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -244,6 +244,9 @@
     <t>ICMS, PISCOFINS, ECD</t>
   </si>
   <si>
+    <t>ecf</t>
+  </si>
+  <si>
     <t>BRASIL_ATACADO</t>
   </si>
   <si>
@@ -530,9 +533,6 @@
   </si>
   <si>
     <t>10.437.378/0001-00</t>
-  </si>
-  <si>
-    <t>ecd</t>
   </si>
   <si>
     <t>ENERDINBO_ENERGIA</t>
@@ -675,6 +675,7 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,6 +691,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -708,10 +712,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,40 +1028,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1069,11 +1068,11 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1081,23 +1080,23 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="14"/>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1105,35 +1104,35 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14"/>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14"/>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1141,23 +1140,23 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14"/>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1165,11 +1164,11 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1177,11 +1176,11 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1189,11 +1188,11 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1201,11 +1200,11 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1213,11 +1212,11 @@
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1225,119 +1224,119 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="14"/>
+      <c r="C21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="14"/>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1345,11 +1344,11 @@
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1357,23 +1356,23 @@
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="14"/>
+      <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1381,23 +1380,23 @@
       <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1405,11 +1404,11 @@
       <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1417,792 +1416,780 @@
       <c r="A32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="7"/>
+      <c r="D35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7" t="s">
+      <c r="B48" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7" t="s">
+      <c r="B49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="14"/>
+      <c r="B50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="14"/>
+      <c r="B51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7" t="s">
+      <c r="B52" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="14"/>
+      <c r="B53" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="14"/>
+      <c r="B54" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7" t="s">
+      <c r="B55" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7" t="s">
+      <c r="B56" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="B57" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="14"/>
+      <c r="B58" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="14"/>
+      <c r="B59" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7" t="s">
+      <c r="B60" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="14"/>
+      <c r="B61" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>126</v>
-      </c>
-      <c r="B62" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7" t="s">
+      <c r="B62" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="14"/>
+      <c r="B63" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="7" t="s">
+      <c r="B64" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="14"/>
+      <c r="B65" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="B66" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="14"/>
+      <c r="B67" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="9"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7" t="s">
+      <c r="B68" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="14"/>
+      <c r="B69" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7" t="s">
+      <c r="B70" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>144</v>
-      </c>
-      <c r="B71" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7" t="s">
+      <c r="B71" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7" t="s">
+      <c r="B72" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>148</v>
-      </c>
-      <c r="B73" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7" t="s">
+      <c r="B73" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>150</v>
-      </c>
-      <c r="B74" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="14"/>
+      <c r="B74" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="9"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="B75" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="B76" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>156</v>
-      </c>
-      <c r="B77" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="14"/>
+      <c r="B77" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>158</v>
-      </c>
-      <c r="B78" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="14"/>
+      <c r="B78" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B79" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="14"/>
+      <c r="B79" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>162</v>
-      </c>
-      <c r="B80" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="14"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>164</v>
-      </c>
-      <c r="B81" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="14"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="14"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>168</v>
-      </c>
-      <c r="B83" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E83" s="14" t="s">
+      <c r="B83" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C83" s="7"/>
+      <c r="D83" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>171</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C84" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="14"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>175</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="14"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>177</v>
       </c>
       <c r="B87" t="s">
         <v>178</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="14"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C88" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>181</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C89" s="7"/>
+      <c r="D89" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>183</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C90" s="7"/>
+      <c r="D90" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="14"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>187</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="14"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C92" s="7"/>
+      <c r="D92" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>189</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C93" s="7"/>
+      <c r="D93" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>191</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C94" s="7"/>
+      <c r="D94" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>193</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="14"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
+      <c r="C95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>170</v>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/robo_bx/BasesNovas.xlsx
+++ b/robo_bx/BasesNovas.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F75F33C-34FD-4888-AA84-773F0311564E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8986C3D-E4C9-45FF-AC94-59A0DC7F2246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$96</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="260">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -241,12 +244,6 @@
     <t>18.765.045/0001-12</t>
   </si>
   <si>
-    <t>ICMS, PISCOFINS, ECD</t>
-  </si>
-  <si>
-    <t>ecf</t>
-  </si>
-  <si>
     <t>BRASIL_ATACADO</t>
   </si>
   <si>
@@ -611,6 +608,201 @@
   </si>
   <si>
     <t>85.035.327/0001-51</t>
+  </si>
+  <si>
+    <t>APENAS ECF</t>
+  </si>
+  <si>
+    <t>INGA_IMPORT</t>
+  </si>
+  <si>
+    <t>11.279.307/0001-90</t>
+  </si>
+  <si>
+    <t>INTERCROMA</t>
+  </si>
+  <si>
+    <t>00557713000150</t>
+  </si>
+  <si>
+    <t>IRANI</t>
+  </si>
+  <si>
+    <t>75864728000160</t>
+  </si>
+  <si>
+    <t>ISOART</t>
+  </si>
+  <si>
+    <t>09094564000105</t>
+  </si>
+  <si>
+    <t>ISOCARGO</t>
+  </si>
+  <si>
+    <t>48168747000180</t>
+  </si>
+  <si>
+    <t>ITAHUM</t>
+  </si>
+  <si>
+    <t>12923609000111</t>
+  </si>
+  <si>
+    <t>ITAIPU_GRUPO_GASPERINI</t>
+  </si>
+  <si>
+    <t>73862500000106</t>
+  </si>
+  <si>
+    <t>ITAIPU_GRUPO_JP</t>
+  </si>
+  <si>
+    <t>04027450000129</t>
+  </si>
+  <si>
+    <t>ITAIPU_GRUPO_MEDIANEIRA</t>
+  </si>
+  <si>
+    <t>95358388000103</t>
+  </si>
+  <si>
+    <t>ITAIPU_GRUPO_PATO</t>
+  </si>
+  <si>
+    <t>85513521000103</t>
+  </si>
+  <si>
+    <t>ITAIPU_GRUPO_PV</t>
+  </si>
+  <si>
+    <t>00704766000157</t>
+  </si>
+  <si>
+    <t>ITAIPU_GRUPO_ROMAN</t>
+  </si>
+  <si>
+    <t>02811759000180</t>
+  </si>
+  <si>
+    <t>ITALIA_TRANSPORTES</t>
+  </si>
+  <si>
+    <t>81574188000183</t>
+  </si>
+  <si>
+    <t>J_MONTE_CONSTRUCOES</t>
+  </si>
+  <si>
+    <t>05162079000170</t>
+  </si>
+  <si>
+    <t>J_MONTE_DURAFIX</t>
+  </si>
+  <si>
+    <t>15121481000160</t>
+  </si>
+  <si>
+    <t>JDF_NORDESTE</t>
+  </si>
+  <si>
+    <t>17729812000175</t>
+  </si>
+  <si>
+    <t>JODIBE</t>
+  </si>
+  <si>
+    <t>24441917000190</t>
+  </si>
+  <si>
+    <t>JOTABE_ALIMENTOS</t>
+  </si>
+  <si>
+    <t>23.430.135/0001-92</t>
+  </si>
+  <si>
+    <t>K_DU</t>
+  </si>
+  <si>
+    <t>10.424.098/0001-68</t>
+  </si>
+  <si>
+    <t>KADAO</t>
+  </si>
+  <si>
+    <t>07164263000185</t>
+  </si>
+  <si>
+    <t>KAKO</t>
+  </si>
+  <si>
+    <t>85404671000170</t>
+  </si>
+  <si>
+    <t>LANGON</t>
+  </si>
+  <si>
+    <t>01515050000174</t>
+  </si>
+  <si>
+    <t>LATCO_BEVERAGES</t>
+  </si>
+  <si>
+    <t>01046213000117</t>
+  </si>
+  <si>
+    <t>LATCO_LATICINIOS</t>
+  </si>
+  <si>
+    <t>78900511000157</t>
+  </si>
+  <si>
+    <t>LATICINIOS_ECONATA</t>
+  </si>
+  <si>
+    <t>18.495.429/0001-62</t>
+  </si>
+  <si>
+    <t>LATVIDA</t>
+  </si>
+  <si>
+    <t>07510884000173</t>
+  </si>
+  <si>
+    <t>LEFORT</t>
+  </si>
+  <si>
+    <t>03400570000167</t>
+  </si>
+  <si>
+    <t>LEITE_SUL_COMERCIO</t>
+  </si>
+  <si>
+    <t>22.960.865/0001-32</t>
+  </si>
+  <si>
+    <t>LEONFER</t>
+  </si>
+  <si>
+    <t>07.569.345/0001-00</t>
+  </si>
+  <si>
+    <t>LIMEIRA_LTDA</t>
+  </si>
+  <si>
+    <t>06.343.447/0001-40</t>
+  </si>
+  <si>
+    <t>LOGIC</t>
+  </si>
+  <si>
+    <t>05.267.635/0001-73</t>
+  </si>
+  <si>
+    <t>LYNKZ</t>
+  </si>
+  <si>
+    <t>27095555000110</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,7 +1616,7 @@
       </c>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -1436,7 +1628,7 @@
       </c>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1448,7 +1640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1457,608 +1649,539 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="E35" t="s">
+      <c r="B36" s="6" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="C51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="C58" s="7"/>
+      <c r="D58" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B59" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="C59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B60" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B64" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B66" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="C66" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="C67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B68" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="9"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B70" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B75" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="9"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="C75" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="C76" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="C77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="C78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B79" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="C79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>161</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B80" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>163</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>10</v>
@@ -2067,10 +2190,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>10</v>
@@ -2079,10 +2202,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>10</v>
@@ -2091,22 +2214,22 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="8" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>10</v>
@@ -2114,10 +2237,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>10</v>
@@ -2126,10 +2249,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>10</v>
@@ -2138,10 +2261,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>10</v>
@@ -2150,10 +2273,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>10</v>
@@ -2161,34 +2284,34 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="8" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>10</v>
@@ -2197,46 +2320,48 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C92" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D92" s="8" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="8" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>10</v>
@@ -2245,18 +2370,275 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8" t="s">
-        <v>73</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/robo_bx/BasesNovas.xlsx
+++ b/robo_bx/BasesNovas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
@@ -490,10 +490,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -502,7 +502,7 @@
     <col width="17.77734375" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
     <col width="9.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="19.88671875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="12.5546875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="22.44140625" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ecf, ecd, icms</t>
+          <t>ecf, ecd, icms, piscofins</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ecf, ecd</t>
+          <t>ecf, ecd, icms</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ecf, ecd</t>
+          <t>ecf, ecd, icms</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ecf, ecd</t>
+          <t>ecf, ecd, icms</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ecf, ecd</t>
+          <t>ecf, ecd, icms</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ecf, ecd</t>
+          <t>ecf, ecd, icms</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ecf, ecd</t>
+          <t>ecf, ecd, icms</t>
         </is>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ecf, ecd</t>
+          <t>ecf, ecd, icms</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ecf, ecd</t>
+          <t>ecf, ecd, icms</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ecf, ecd</t>
+          <t>ecf, ecd, icms</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ecf, ecd</t>
+          <t>ecf, ecd, icms</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,19 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ecf, ecd</t>
+          <t>ecf, ecd, icms</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>70223748000139</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>icms</t>
         </is>
       </c>
     </row>

--- a/robo_bx/BasesNovas.xlsx
+++ b/robo_bx/BasesNovas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B4A7A0-1DF9-4200-9E84-2741C8AF241B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D282AB25-8858-4E7F-BE74-DE5398F9F8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$150</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="300">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -634,18 +634,12 @@
     <t>09094564000105</t>
   </si>
   <si>
-    <t>ecf, ecd, icms, piscofins</t>
-  </si>
-  <si>
     <t>ISOCARGO</t>
   </si>
   <si>
     <t>48168747000180</t>
   </si>
   <si>
-    <t>ecf, ecd, icms</t>
-  </si>
-  <si>
     <t>ITAHUM</t>
   </si>
   <si>
@@ -808,7 +802,127 @@
     <t>27095555000110</t>
   </si>
   <si>
-    <t>icms</t>
+    <t>PAJEU</t>
+  </si>
+  <si>
+    <t>FONTANELLA_ADMINISTRADORA</t>
+  </si>
+  <si>
+    <t>22.915.958/0001-45</t>
+  </si>
+  <si>
+    <t>FONTANELLA_CARGAS</t>
+  </si>
+  <si>
+    <t>41.104.296/0001-78</t>
+  </si>
+  <si>
+    <t>FONTANELLA_CHAMINE</t>
+  </si>
+  <si>
+    <t>95.853.545/0001-57</t>
+  </si>
+  <si>
+    <t>FRAVI</t>
+  </si>
+  <si>
+    <t>05.108.075/0001-04</t>
+  </si>
+  <si>
+    <t>FRIBOM</t>
+  </si>
+  <si>
+    <t>FRIGELAR</t>
+  </si>
+  <si>
+    <t>FRINEX</t>
+  </si>
+  <si>
+    <t>02.191.819/0001-09</t>
+  </si>
+  <si>
+    <t>FRIOBOM</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>FV_CEREAIS</t>
+  </si>
+  <si>
+    <t>08.509.046/0001-42</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>GIACOMEL_BERTUOL</t>
+  </si>
+  <si>
+    <t>77.984.201/0001-03</t>
+  </si>
+  <si>
+    <t>GIANNONE_ECIA</t>
+  </si>
+  <si>
+    <t>GIANNONE_TRANSPORTES</t>
+  </si>
+  <si>
+    <t>GIRO_LATICINIOS</t>
+  </si>
+  <si>
+    <t>HDS_MECPAR</t>
+  </si>
+  <si>
+    <t>04.774.509/0001-42</t>
+  </si>
+  <si>
+    <t>HENN</t>
+  </si>
+  <si>
+    <t>HERIVELTON_LEAL</t>
+  </si>
+  <si>
+    <t>29.481.296/0001-91</t>
+  </si>
+  <si>
+    <t>HORIZONTE_DISTRIB</t>
+  </si>
+  <si>
+    <t>12.808.767/0001-20</t>
+  </si>
+  <si>
+    <t>HORTIGIL</t>
+  </si>
+  <si>
+    <t>12464051000153</t>
+  </si>
+  <si>
+    <t>92660406000119</t>
+  </si>
+  <si>
+    <t>03866526000147</t>
+  </si>
+  <si>
+    <t>07569161000140</t>
+  </si>
+  <si>
+    <t>71448260000172</t>
+  </si>
+  <si>
+    <t>08186591000145</t>
+  </si>
+  <si>
+    <t>02644758000198</t>
+  </si>
+  <si>
+    <t>85355592000117</t>
+  </si>
+  <si>
+    <t>31487473000199</t>
+  </si>
+  <si>
+    <t>02814573000184</t>
   </si>
 </sst>
 </file>
@@ -839,7 +953,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,12 +963,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -906,9 +1014,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,15 +1341,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
@@ -2376,10 +2493,10 @@
       <c r="D95" s="9"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C96" s="7"/>
@@ -2387,369 +2504,698 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C102" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E103" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E104" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="6"/>
+      <c r="D129" s="18"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E105" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E106" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>211</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E107" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>213</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E108" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>215</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E109" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>217</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E110" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>219</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E111" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C112" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>223</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E113" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>225</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E114" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>227</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C115" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>229</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C116" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>231</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E117" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>233</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E118" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>235</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E119" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>237</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C120" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>239</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E121" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>241</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E122" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>243</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E123" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>245</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C124" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>247</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C125" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>249</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E126" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>251</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C127" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>253</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E128" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>255</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C129" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>257</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E130" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E131" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B132" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E132" t="s">
-        <v>261</v>
-      </c>
+      <c r="B150" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="14"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="14"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="14"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="14"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="14"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="14"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="14"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="14"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="14"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="14"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="14"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="14"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="14"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="14"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="14"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="14"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="14"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="14"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="14"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="14"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="14"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="14"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="14"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="14"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="14"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="14"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="14"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="14"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="14"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="14"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="14"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="14"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="14"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="14"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="14"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="14"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="14"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="14"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="14"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="14"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="14"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="14"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="14"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="14"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="14"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="14"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="14"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="14"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="14"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="14"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="14"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="14"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="14"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="14"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E96" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/robo_bx/BasesNovas.xlsx
+++ b/robo_bx/BasesNovas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D282AB25-8858-4E7F-BE74-DE5398F9F8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DA1157-F3CB-48F4-9E6D-D00AB2841F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="301">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -802,124 +802,127 @@
     <t>27095555000110</t>
   </si>
   <si>
+    <t>FRAVI</t>
+  </si>
+  <si>
+    <t>05.108.075/0001-04</t>
+  </si>
+  <si>
+    <t>piscofins</t>
+  </si>
+  <si>
+    <t>FRIBOM</t>
+  </si>
+  <si>
+    <t>12464051000153</t>
+  </si>
+  <si>
+    <t>FRIGELAR</t>
+  </si>
+  <si>
+    <t>92660406000119</t>
+  </si>
+  <si>
+    <t>FRINEX</t>
+  </si>
+  <si>
+    <t>02.191.819/0001-09</t>
+  </si>
+  <si>
+    <t>FRIOBOM</t>
+  </si>
+  <si>
+    <t>03866526000147</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>FV_CEREAIS</t>
+  </si>
+  <si>
+    <t>08.509.046/0001-42</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>07569161000140</t>
+  </si>
+  <si>
+    <t>GIACOMEL_BERTUOL</t>
+  </si>
+  <si>
+    <t>77.984.201/0001-03</t>
+  </si>
+  <si>
+    <t>GIANNONE_ECIA</t>
+  </si>
+  <si>
+    <t>71448260000172</t>
+  </si>
+  <si>
+    <t>GIANNONE_TRANSPORTES</t>
+  </si>
+  <si>
+    <t>08186591000145</t>
+  </si>
+  <si>
+    <t>GIRO_LATICINIOS</t>
+  </si>
+  <si>
+    <t>02644758000198</t>
+  </si>
+  <si>
+    <t>HDS_MECPAR</t>
+  </si>
+  <si>
+    <t>04.774.509/0001-42</t>
+  </si>
+  <si>
+    <t>HENN</t>
+  </si>
+  <si>
+    <t>85355592000117</t>
+  </si>
+  <si>
+    <t>HERIVELTON_LEAL</t>
+  </si>
+  <si>
+    <t>29.481.296/0001-91</t>
+  </si>
+  <si>
+    <t>HORIZONTE_DISTRIB</t>
+  </si>
+  <si>
+    <t>12.808.767/0001-20</t>
+  </si>
+  <si>
+    <t>HORTIGIL</t>
+  </si>
+  <si>
+    <t>31487473000199</t>
+  </si>
+  <si>
+    <t>FONTANELLA_ADMINISTRADORA</t>
+  </si>
+  <si>
+    <t>22.915.958/0001-45</t>
+  </si>
+  <si>
+    <t>FONTANELLA_CARGAS</t>
+  </si>
+  <si>
+    <t>41.104.296/0001-78</t>
+  </si>
+  <si>
+    <t>FONTANELLA_CHAMINE</t>
+  </si>
+  <si>
+    <t>95.853.545/0001-57</t>
+  </si>
+  <si>
     <t>PAJEU</t>
-  </si>
-  <si>
-    <t>FONTANELLA_ADMINISTRADORA</t>
-  </si>
-  <si>
-    <t>22.915.958/0001-45</t>
-  </si>
-  <si>
-    <t>FONTANELLA_CARGAS</t>
-  </si>
-  <si>
-    <t>41.104.296/0001-78</t>
-  </si>
-  <si>
-    <t>FONTANELLA_CHAMINE</t>
-  </si>
-  <si>
-    <t>95.853.545/0001-57</t>
-  </si>
-  <si>
-    <t>FRAVI</t>
-  </si>
-  <si>
-    <t>05.108.075/0001-04</t>
-  </si>
-  <si>
-    <t>FRIBOM</t>
-  </si>
-  <si>
-    <t>FRIGELAR</t>
-  </si>
-  <si>
-    <t>FRINEX</t>
-  </si>
-  <si>
-    <t>02.191.819/0001-09</t>
-  </si>
-  <si>
-    <t>FRIOBOM</t>
-  </si>
-  <si>
-    <t>FV</t>
-  </si>
-  <si>
-    <t>FV_CEREAIS</t>
-  </si>
-  <si>
-    <t>08.509.046/0001-42</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>GIACOMEL_BERTUOL</t>
-  </si>
-  <si>
-    <t>77.984.201/0001-03</t>
-  </si>
-  <si>
-    <t>GIANNONE_ECIA</t>
-  </si>
-  <si>
-    <t>GIANNONE_TRANSPORTES</t>
-  </si>
-  <si>
-    <t>GIRO_LATICINIOS</t>
-  </si>
-  <si>
-    <t>HDS_MECPAR</t>
-  </si>
-  <si>
-    <t>04.774.509/0001-42</t>
-  </si>
-  <si>
-    <t>HENN</t>
-  </si>
-  <si>
-    <t>HERIVELTON_LEAL</t>
-  </si>
-  <si>
-    <t>29.481.296/0001-91</t>
-  </si>
-  <si>
-    <t>HORIZONTE_DISTRIB</t>
-  </si>
-  <si>
-    <t>12.808.767/0001-20</t>
-  </si>
-  <si>
-    <t>HORTIGIL</t>
-  </si>
-  <si>
-    <t>12464051000153</t>
-  </si>
-  <si>
-    <t>92660406000119</t>
-  </si>
-  <si>
-    <t>03866526000147</t>
-  </si>
-  <si>
-    <t>07569161000140</t>
-  </si>
-  <si>
-    <t>71448260000172</t>
-  </si>
-  <si>
-    <t>08186591000145</t>
-  </si>
-  <si>
-    <t>02644758000198</t>
-  </si>
-  <si>
-    <t>85355592000117</t>
-  </si>
-  <si>
-    <t>31487473000199</t>
   </si>
   <si>
     <t>02814573000184</t>
@@ -979,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -992,14 +995,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1014,17 +1011,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,19 +1335,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1372,11 +1366,11 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1384,11 +1378,11 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1396,23 +1390,23 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9"/>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1420,35 +1414,35 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9"/>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1456,23 +1450,23 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9"/>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1480,11 +1474,11 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1492,11 +1486,11 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1504,11 +1498,11 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1516,11 +1510,11 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1528,11 +1522,11 @@
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1540,95 +1534,95 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="9"/>
+      <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="9"/>
+      <c r="C22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1636,11 +1630,11 @@
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1648,11 +1642,11 @@
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1660,11 +1654,11 @@
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1672,23 +1666,23 @@
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="9"/>
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1696,23 +1690,23 @@
       <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="9"/>
+      <c r="C29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1720,11 +1714,11 @@
       <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1732,35 +1726,35 @@
       <c r="A32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="9"/>
+      <c r="C32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="9"/>
+      <c r="C33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1768,11 +1762,11 @@
       <c r="A35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1780,11 +1774,11 @@
       <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1792,11 +1786,11 @@
       <c r="A37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1804,23 +1798,23 @@
       <c r="A38" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="9"/>
+      <c r="C38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1828,23 +1822,23 @@
       <c r="A40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="9"/>
+      <c r="C40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1852,11 +1846,11 @@
       <c r="A42" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1864,23 +1858,23 @@
       <c r="A43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="9"/>
+      <c r="C43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1888,11 +1882,11 @@
       <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1900,11 +1894,11 @@
       <c r="A46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1912,11 +1906,11 @@
       <c r="A47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8" t="s">
+      <c r="C47" s="6"/>
+      <c r="D47" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1924,11 +1918,11 @@
       <c r="A48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8" t="s">
+      <c r="C48" s="6"/>
+      <c r="D48" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1936,11 +1930,11 @@
       <c r="A49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1948,35 +1942,35 @@
       <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="9"/>
+      <c r="C50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="9"/>
+      <c r="C51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8" t="s">
+      <c r="C52" s="6"/>
+      <c r="D52" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1984,35 +1978,35 @@
       <c r="A53" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="9"/>
+      <c r="C53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="9"/>
+      <c r="C54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="6"/>
+      <c r="D55" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2020,11 +2014,11 @@
       <c r="A56" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8" t="s">
+      <c r="C56" s="6"/>
+      <c r="D56" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2032,10 +2026,10 @@
       <c r="A57" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2043,11 +2037,11 @@
       <c r="A58" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8" t="s">
+      <c r="C58" s="6"/>
+      <c r="D58" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2055,23 +2049,23 @@
       <c r="A59" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="9"/>
+      <c r="C59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="15"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8" t="s">
+      <c r="C60" s="6"/>
+      <c r="D60" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2079,23 +2073,23 @@
       <c r="A61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="9"/>
+      <c r="C61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2103,11 +2097,11 @@
       <c r="A63" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="8" t="s">
+      <c r="C63" s="6"/>
+      <c r="D63" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2115,11 +2109,11 @@
       <c r="A64" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="8" t="s">
+      <c r="C64" s="6"/>
+      <c r="D64" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2127,11 +2121,11 @@
       <c r="A65" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="8" t="s">
+      <c r="C65" s="6"/>
+      <c r="D65" s="7" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2139,10 +2133,10 @@
       <c r="A66" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2150,23 +2144,23 @@
       <c r="A67" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="9"/>
+      <c r="C67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="15"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8" t="s">
+      <c r="C68" s="6"/>
+      <c r="D68" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2174,23 +2168,23 @@
       <c r="A69" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="9"/>
+      <c r="C69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="15"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="8" t="s">
+      <c r="C70" s="6"/>
+      <c r="D70" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2198,11 +2192,11 @@
       <c r="A71" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="8" t="s">
+      <c r="C71" s="6"/>
+      <c r="D71" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2210,11 +2204,11 @@
       <c r="A72" t="s">
         <v>146</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="8" t="s">
+      <c r="C72" s="6"/>
+      <c r="D72" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2222,11 +2216,11 @@
       <c r="A73" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="8" t="s">
+      <c r="C73" s="6"/>
+      <c r="D73" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2234,22 +2228,22 @@
       <c r="A74" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="9"/>
+      <c r="C74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2257,10 +2251,10 @@
       <c r="A76" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2268,83 +2262,83 @@
       <c r="A77" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="9"/>
+      <c r="C77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="15"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="9"/>
+      <c r="C78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="15"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="9"/>
+      <c r="C79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="15"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="9"/>
+      <c r="C80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="15"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="9"/>
+      <c r="C81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="15"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="9"/>
+      <c r="C82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="15"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>168</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="8" t="s">
+      <c r="C83" s="6"/>
+      <c r="D83" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2352,10 +2346,10 @@
       <c r="A84" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2363,25 +2357,25 @@
       <c r="A85" t="s">
         <v>172</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="9"/>
+      <c r="C85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="15"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>174</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="9"/>
+      <c r="C86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="15"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -2390,19 +2384,19 @@
       <c r="B87" t="s">
         <v>177</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="9"/>
+      <c r="C87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>178</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2410,11 +2404,11 @@
       <c r="A89" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="8" t="s">
+      <c r="C89" s="6"/>
+      <c r="D89" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2422,11 +2416,11 @@
       <c r="A90" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="8" t="s">
+      <c r="C90" s="6"/>
+      <c r="D90" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2434,25 +2428,25 @@
       <c r="A91" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="9"/>
+      <c r="C91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="15"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="8" t="s">
+      <c r="C92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2460,11 +2454,11 @@
       <c r="A93" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="8" t="s">
+      <c r="C93" s="6"/>
+      <c r="D93" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2472,11 +2466,11 @@
       <c r="A94" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="8" t="s">
+      <c r="C94" s="6"/>
+      <c r="D94" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2484,23 +2478,23 @@
       <c r="A95" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="9"/>
+      <c r="C95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="15"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
+      <c r="A96" t="s">
         <v>193</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="8" t="s">
+      <c r="C96" s="6"/>
+      <c r="D96" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2508,7 +2502,7 @@
       <c r="A97" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="13" t="s">
         <v>196</v>
       </c>
       <c r="C97" t="s">
@@ -2519,7 +2513,7 @@
       <c r="A98" t="s">
         <v>197</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="13" t="s">
         <v>198</v>
       </c>
       <c r="C98" t="s">
@@ -2530,7 +2524,7 @@
       <c r="A99" t="s">
         <v>199</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="13" t="s">
         <v>200</v>
       </c>
       <c r="C99" t="s">
@@ -2541,10 +2535,10 @@
       <c r="A100" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2552,10 +2546,10 @@
       <c r="A101" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2563,10 +2557,10 @@
       <c r="A102" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2574,10 +2568,10 @@
       <c r="A103" t="s">
         <v>207</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2585,10 +2579,10 @@
       <c r="A104" t="s">
         <v>209</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2596,10 +2590,10 @@
       <c r="A105" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2607,10 +2601,10 @@
       <c r="A106" t="s">
         <v>213</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2618,10 +2612,10 @@
       <c r="A107" t="s">
         <v>215</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2629,10 +2623,10 @@
       <c r="A108" t="s">
         <v>217</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2640,7 +2634,7 @@
       <c r="A109" t="s">
         <v>219</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="13" t="s">
         <v>220</v>
       </c>
       <c r="C109" t="s">
@@ -2651,10 +2645,10 @@
       <c r="A110" t="s">
         <v>221</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2662,10 +2656,10 @@
       <c r="A111" t="s">
         <v>223</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2673,7 +2667,7 @@
       <c r="A112" t="s">
         <v>225</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="13" t="s">
         <v>226</v>
       </c>
       <c r="C112" t="s">
@@ -2684,7 +2678,7 @@
       <c r="A113" t="s">
         <v>227</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="13" t="s">
         <v>228</v>
       </c>
       <c r="C113" t="s">
@@ -2695,10 +2689,10 @@
       <c r="A114" t="s">
         <v>229</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2706,10 +2700,10 @@
       <c r="A115" t="s">
         <v>231</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2717,10 +2711,10 @@
       <c r="A116" t="s">
         <v>233</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2728,7 +2722,7 @@
       <c r="A117" t="s">
         <v>235</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="13" t="s">
         <v>236</v>
       </c>
       <c r="C117" t="s">
@@ -2739,10 +2733,10 @@
       <c r="A118" t="s">
         <v>237</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2750,10 +2744,10 @@
       <c r="A119" t="s">
         <v>239</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2761,10 +2755,10 @@
       <c r="A120" t="s">
         <v>241</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2772,7 +2766,7 @@
       <c r="A121" t="s">
         <v>243</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="13" t="s">
         <v>244</v>
       </c>
       <c r="C121" t="s">
@@ -2783,7 +2777,7 @@
       <c r="A122" t="s">
         <v>245</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="13" t="s">
         <v>246</v>
       </c>
       <c r="C122" t="s">
@@ -2794,10 +2788,10 @@
       <c r="A123" t="s">
         <v>247</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2805,7 +2799,7 @@
       <c r="A124" t="s">
         <v>249</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="13" t="s">
         <v>250</v>
       </c>
       <c r="C124" t="s">
@@ -2816,10 +2810,10 @@
       <c r="A125" t="s">
         <v>251</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2827,7 +2821,7 @@
       <c r="A126" t="s">
         <v>253</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="13" t="s">
         <v>254</v>
       </c>
       <c r="C126" t="s">
@@ -2838,10 +2832,10 @@
       <c r="A127" t="s">
         <v>255</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2849,183 +2843,186 @@
       <c r="A128" t="s">
         <v>257</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D128" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B129" s="6"/>
-      <c r="D129" s="18"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="17" t="s">
+      <c r="D128" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B129" s="13"/>
+      <c r="D129" s="15"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E130" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="17" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="17" t="s">
+      <c r="B134" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="17" t="s">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="14" t="s">
         <v>270</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="17" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B136" s="1" t="s">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="14" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="17" t="s">
+      <c r="B138" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="1" t="s">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="14" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="B139" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="B140" s="1" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="B141" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B143" s="1" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="14" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="17" t="s">
-        <v>259</v>
+      <c r="A150" s="14" t="s">
+        <v>299</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -3196,6 +3193,6 @@
   </sheetData>
   <autoFilter ref="A1:E150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/robo_bx/BasesNovas.xlsx
+++ b/robo_bx/BasesNovas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893BFB68-091B-4677-B701-DC1AE655CAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9025AFFA-CCB0-406D-8D87-558F5B839656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21555" yWindow="3345" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="301">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -808,13 +808,13 @@
     <t>05.108.075/0001-04</t>
   </si>
   <si>
+    <t>FRIBOM</t>
+  </si>
+  <si>
+    <t>12464051000153</t>
+  </si>
+  <si>
     <t>piscofins</t>
-  </si>
-  <si>
-    <t>FRIBOM</t>
-  </si>
-  <si>
-    <t>12464051000153</t>
   </si>
   <si>
     <t>FRIGELAR</t>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2862,14 +2862,17 @@
         <v>260</v>
       </c>
       <c r="E130" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="E131" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2880,6 +2883,9 @@
       <c r="B132" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
@@ -2888,6 +2894,9 @@
       <c r="B133" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="E133" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
@@ -2896,6 +2905,9 @@
       <c r="B134" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="E134" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
@@ -2904,6 +2916,9 @@
       <c r="B135" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="E135" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
@@ -2912,6 +2927,9 @@
       <c r="B136" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="E136" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
@@ -2920,6 +2938,9 @@
       <c r="B137" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="E137" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
@@ -2928,6 +2949,9 @@
       <c r="B138" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
@@ -2936,6 +2960,9 @@
       <c r="B139" s="1" t="s">
         <v>278</v>
       </c>
+      <c r="E139" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
@@ -2944,6 +2971,9 @@
       <c r="B140" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="E140" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
@@ -2952,6 +2982,9 @@
       <c r="B141" s="1" t="s">
         <v>282</v>
       </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
@@ -2960,6 +2993,9 @@
       <c r="B142" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
@@ -2968,6 +3004,9 @@
       <c r="B143" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
@@ -2976,83 +3015,104 @@
       <c r="B144" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E144" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
         <v>289</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>291</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
         <v>293</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
         <v>295</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
         <v>297</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
         <v>299</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="14"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="14"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="14"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="14"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="14"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="14"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
@@ -3193,6 +3253,6 @@
   </sheetData>
   <autoFilter ref="A1:E150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/robo_bx/BasesNovas.xlsx
+++ b/robo_bx/BasesNovas.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9025AFFA-CCB0-406D-8D87-558F5B839656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308A41E1-746F-45E5-8A06-DD6B2F1070BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3108" yWindow="1704" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$149</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="300">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -812,9 +812,6 @@
   </si>
   <si>
     <t>12464051000153</t>
-  </si>
-  <si>
-    <t>piscofins</t>
   </si>
   <si>
     <t>FRIGELAR</t>
@@ -1335,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:A150"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,7 +1587,7 @@
       </c>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2851,136 +2848,152 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B129" s="13"/>
-      <c r="D129" s="15"/>
+      <c r="A129" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E130" t="s">
-        <v>263</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E131" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C132" t="s">
-        <v>10</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E133" t="s">
-        <v>263</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E134" t="s">
-        <v>263</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
         <v>270</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E135" t="s">
-        <v>263</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E136" t="s">
-        <v>263</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E137" t="s">
-        <v>263</v>
+        <v>275</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C138" t="s">
-        <v>10</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E139" t="s">
-        <v>263</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E140" t="s">
-        <v>263</v>
+        <v>281</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C141" t="s">
         <v>10</v>
@@ -2988,10 +3001,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C142" t="s">
         <v>10</v>
@@ -2999,32 +3012,33 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C143" t="s">
-        <v>10</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E144" t="s">
-        <v>263</v>
+        <v>289</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C145" t="s">
         <v>10</v>
@@ -3032,21 +3046,21 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C146" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C147" t="s">
         <v>10</v>
@@ -3054,10 +3068,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C148" t="s">
         <v>10</v>
@@ -3065,25 +3079,17 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C149" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C150" t="s">
-        <v>10</v>
-      </c>
+      <c r="A150" s="14"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="14"/>
@@ -3247,12 +3253,9 @@
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="14"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E149" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/robo_bx/BasesNovas.xlsx
+++ b/robo_bx/BasesNovas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308A41E1-746F-45E5-8A06-DD6B2F1070BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514D7B27-A087-4653-A69F-1B7606BF34F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3108" yWindow="1704" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="322">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -923,6 +923,72 @@
   </si>
   <si>
     <t>02814573000184</t>
+  </si>
+  <si>
+    <t>LATCO</t>
+  </si>
+  <si>
+    <t>78.900.511/0001-57</t>
+  </si>
+  <si>
+    <t>icms</t>
+  </si>
+  <si>
+    <t>PAJEÚ</t>
+  </si>
+  <si>
+    <t>02.814.573/0001-84</t>
+  </si>
+  <si>
+    <t>PROVIDENCIA</t>
+  </si>
+  <si>
+    <t>19.570.655/0001-23</t>
+  </si>
+  <si>
+    <t>TRIUNFANTE MATOGROSSENSE</t>
+  </si>
+  <si>
+    <t>00.726.560/0001-28</t>
+  </si>
+  <si>
+    <t>VICOLOG TRANSPORTES</t>
+  </si>
+  <si>
+    <t>12.407.691/0001-21</t>
+  </si>
+  <si>
+    <t>ALIMENTOS ZAELI</t>
+  </si>
+  <si>
+    <t>77.917.680/0001-37</t>
+  </si>
+  <si>
+    <t>ZAELI SUL</t>
+  </si>
+  <si>
+    <t>02.285.042/0001-41</t>
+  </si>
+  <si>
+    <t>ZAELI ZIOMAR</t>
+  </si>
+  <si>
+    <t>02.273.805/0001-34</t>
+  </si>
+  <si>
+    <t>DISTAC</t>
+  </si>
+  <si>
+    <t>08.072.649/0001-20</t>
+  </si>
+  <si>
+    <t>MAX ALIMENTOS</t>
+  </si>
+  <si>
+    <t>10.535.064/0001-40</t>
+  </si>
+  <si>
+    <t>48.168.747/0001-80</t>
   </si>
 </sst>
 </file>
@@ -979,7 +1045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1018,6 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1335,7 +1402,7 @@
   <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2847,7 +2914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
         <v>259</v>
       </c>
@@ -2857,9 +2924,8 @@
       <c r="D129" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E129"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>261</v>
       </c>
@@ -2869,9 +2935,8 @@
       <c r="D130" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E130"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
         <v>263</v>
       </c>
@@ -2882,7 +2947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
         <v>265</v>
       </c>
@@ -2892,9 +2957,8 @@
       <c r="D132" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E132"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
         <v>267</v>
       </c>
@@ -2904,9 +2968,8 @@
       <c r="D133" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E133"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
         <v>269</v>
       </c>
@@ -2916,9 +2979,8 @@
       <c r="D134" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E134"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
         <v>270</v>
       </c>
@@ -2928,9 +2990,8 @@
       <c r="D135" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E135"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
         <v>272</v>
       </c>
@@ -2940,9 +3001,8 @@
       <c r="D136" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E136"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
         <v>274</v>
       </c>
@@ -2953,7 +3013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
         <v>276</v>
       </c>
@@ -2963,9 +3023,8 @@
       <c r="D138" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E138"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
         <v>278</v>
       </c>
@@ -2975,9 +3034,8 @@
       <c r="D139" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E139"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
         <v>280</v>
       </c>
@@ -2988,7 +3046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
         <v>282</v>
       </c>
@@ -2999,7 +3057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
         <v>284</v>
       </c>
@@ -3010,7 +3068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
         <v>286</v>
       </c>
@@ -3020,9 +3078,8 @@
       <c r="D143" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E143"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
         <v>288</v>
       </c>
@@ -3033,7 +3090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
         <v>290</v>
       </c>
@@ -3044,7 +3101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>292</v>
       </c>
@@ -3055,7 +3112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
         <v>294</v>
       </c>
@@ -3066,7 +3123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
         <v>296</v>
       </c>
@@ -3077,7 +3134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
         <v>298</v>
       </c>
@@ -3088,85 +3145,198 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="14"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="14"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="14"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="14"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="14"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="14"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="14"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="14"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="14"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="14"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="14"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="14"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>300</v>
+      </c>
+      <c r="B150" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="16"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="16"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>309</v>
+      </c>
+      <c r="B154" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>311</v>
+      </c>
+      <c r="B155" t="s">
+        <v>312</v>
+      </c>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>313</v>
+      </c>
+      <c r="B156" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>315</v>
+      </c>
+      <c r="B157" t="s">
+        <v>316</v>
+      </c>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>146</v>
+      </c>
+      <c r="B158" t="s">
+        <v>147</v>
+      </c>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>317</v>
+      </c>
+      <c r="B159" t="s">
+        <v>318</v>
+      </c>
+      <c r="D159" s="16"/>
+      <c r="E159" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>319</v>
+      </c>
+      <c r="B160" t="s">
+        <v>320</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>203</v>
+      </c>
+      <c r="B161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="14"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="14"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="14"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="14"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="14"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="14"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="14"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="14"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="14"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="14"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="14"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="14"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="14"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="14"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
